--- a/Banco Central/5/7/Inyección y drene de liquidez 2021 - Diaria.xlsx
+++ b/Banco Central/5/7/Inyección y drene de liquidez 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t>Serie</t>
   </si>
@@ -479,6 +479,21 @@
   </si>
   <si>
     <t>26-07-2021</t>
+  </si>
+  <si>
+    <t>27-07-2021</t>
+  </si>
+  <si>
+    <t>28-07-2021</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
   </si>
 </sst>
 </file>
@@ -836,7 +851,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K145"/>
+  <dimension ref="A1:K150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5908,6 +5923,181 @@
         <v>6</v>
       </c>
     </row>
+    <row r="146" spans="1:11">
+      <c r="A146" t="s">
+        <v>155</v>
+      </c>
+      <c r="B146">
+        <v>38</v>
+      </c>
+      <c r="C146">
+        <v>7</v>
+      </c>
+      <c r="D146">
+        <v>12</v>
+      </c>
+      <c r="E146">
+        <v>-1</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>-2</v>
+      </c>
+      <c r="H146">
+        <v>-10</v>
+      </c>
+      <c r="I146">
+        <v>-35</v>
+      </c>
+      <c r="J146">
+        <v>-15</v>
+      </c>
+      <c r="K146">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" t="s">
+        <v>156</v>
+      </c>
+      <c r="B147">
+        <v>38</v>
+      </c>
+      <c r="C147">
+        <v>7</v>
+      </c>
+      <c r="D147">
+        <v>12</v>
+      </c>
+      <c r="E147">
+        <v>-1</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>-3</v>
+      </c>
+      <c r="H147">
+        <v>-9</v>
+      </c>
+      <c r="I147">
+        <v>-35</v>
+      </c>
+      <c r="J147">
+        <v>-15</v>
+      </c>
+      <c r="K147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" t="s">
+        <v>157</v>
+      </c>
+      <c r="B148">
+        <v>38</v>
+      </c>
+      <c r="C148">
+        <v>7</v>
+      </c>
+      <c r="D148">
+        <v>12</v>
+      </c>
+      <c r="E148">
+        <v>-1</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>-2</v>
+      </c>
+      <c r="H148">
+        <v>-7</v>
+      </c>
+      <c r="I148">
+        <v>-37</v>
+      </c>
+      <c r="J148">
+        <v>-15</v>
+      </c>
+      <c r="K148">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" t="s">
+        <v>158</v>
+      </c>
+      <c r="B149">
+        <v>38</v>
+      </c>
+      <c r="C149">
+        <v>7</v>
+      </c>
+      <c r="D149">
+        <v>10</v>
+      </c>
+      <c r="E149">
+        <v>-1</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>-3</v>
+      </c>
+      <c r="H149">
+        <v>-8</v>
+      </c>
+      <c r="I149">
+        <v>-38</v>
+      </c>
+      <c r="J149">
+        <v>-11</v>
+      </c>
+      <c r="K149">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" t="s">
+        <v>159</v>
+      </c>
+      <c r="B150">
+        <v>38</v>
+      </c>
+      <c r="C150">
+        <v>7</v>
+      </c>
+      <c r="D150">
+        <v>10</v>
+      </c>
+      <c r="E150">
+        <v>-2</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>-3</v>
+      </c>
+      <c r="H150">
+        <v>-8</v>
+      </c>
+      <c r="I150">
+        <v>-37</v>
+      </c>
+      <c r="J150">
+        <v>-12</v>
+      </c>
+      <c r="K150">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
